--- a/medicine/Enfance/A._B._Guthrie/A._B._Guthrie.xlsx
+++ b/medicine/Enfance/A._B._Guthrie/A._B._Guthrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Bertram Guthrie, Jr., né le 13 janvier 1901 à Bedford, en Indiana, et mort le 26 avril 1991 à Choteau, dans le Montana, est un romancier et historien américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trouvant trop féminins ses prénoms, il se surnommait Bud. Il entreprend des études supérieures à l'Université de Washington qu'il poursuit à l'Université de Seattle avant d'obtenir son diplôme à l'Université du Montana. Il devient ensuite reporter, puis rédacteur pour des journaux du Kentucky.
 Il amorce sa carrière en littérature avec La Captive aux yeux clairs (The Big Sky) en 1947, qui est suivi d'Orégon-Express (The Way West), qui remporte le prix Pulitzer en 1950.
@@ -546,40 +560,335 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Western
-The Big Sky (1947) Publié en français sous le titre La Captive aux yeux clairs, Paris, Denoël, 1947 ; réédition, Arles, Actes Sud, coll. « L’Ouest, le vrai », 2014.
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Western</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Big Sky (1947) Publié en français sous le titre La Captive aux yeux clairs, Paris, Denoël, 1947 ; réédition, Arles, Actes Sud, coll. « L’Ouest, le vrai », 2014.
 The Way West (1949) Publié en français sous le titre Orégon-Express, Paris, Denoël, 1956 ; réédition, Arles, Actes Sud, coll. « L’Ouest, le vrai », 2014 sous le titre La Route de l’Ouest. Publié en français dans une version abrégée pour la jeunesse sous le titre Aventures sur les pistes du Far-West, Paris, Istra, 1963.
 These Thousand Hills (1956)Publié en français sous le titre L'Irrésistible Ascension de Lat Evans, Arles, Actes Sud, coll. « L'Ouest, le vrai », 2017.
 Arfive (1971)
 The Last Valley (1975)
-Fair Land, Fair Land (1982) Publié en français sous le titre Dans un si beau pays, Arles, Actes Sud, coll. « L'Ouest, le vrai », 2015.
-Série Shérif Chick Charleston
-Wild Pitch (1973) Publié en français sous le titre Retour de bâton, Paris, Gallimard, Série noire no 2347, 1994
+Fair Land, Fair Land (1982) Publié en français sous le titre Dans un si beau pays, Arles, Actes Sud, coll. « L'Ouest, le vrai », 2015.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Shérif Chick Charleston</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Wild Pitch (1973) Publié en français sous le titre Retour de bâton, Paris, Gallimard, Série noire no 2347, 1994
 The Genuine Article (1977) Publié en français sous le titre Le Produit d'origine, Paris, Gallimard, Série noire no 2429, 1996
 No Second Wind (1980) Publié en français sous le titre Les loups sont innocents, Paris, Gallimard, Série noire no 1827, 1981
 Playing Catch-up (1987)
-Murder in the Cotswolds (1989)
-Autres romans
-Murders at Moon Dance (1943)
+Murder in the Cotswolds (1989)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Murders at Moon Dance (1943)
 Twenty-Six Years After (1949)
 Kentucky (1951)
-The West Is Our Great Adventure of the Spirit (1959)
-Recueil de nouvelles
-The Big It, And Other Stories (1960)
-Littérature d'enfance et de jeunesse
-The Big Sky: An Edition For Young Readers (1950)
-Once Upon a Pond (1973)
-Poésie
-Four Miles from Ear Mountain (1987)
-Autobiographie
-The Blue Hen's Chick (1965)
-Filmographie
-en tant que scénariste
-1953 : L'Homme des vallées perdues (Shane), film de George Stevens, adaptation par A. B. Guthrie, Jr., d'un roman de Jack Schaefer, avec Alan Ladd et Jean Arthur
-1955 : L'Homme du Kentucky (The Kentuckian), film de Burt Lancaster, adaptation par A. B. Guthrie, Jr., d'un roman de Felix Holt (en), avec Burt Lancaster et Dianne Foster
-œuvres adaptées
-1952 : La Captive aux yeux clairs (The Big Sky), film américain réalisé par Howard Hawks, adaptation du roman éponyme, avec Kirk Douglas et Dewey Martin
+The West Is Our Great Adventure of the Spirit (1959)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Big It, And Other Stories (1960)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Big Sky: An Edition For Young Readers (1950)
+Once Upon a Pond (1973)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Four Miles from Ear Mountain (1987)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autobiographie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The Blue Hen's Chick (1965)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>en tant que scénariste</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1953 : L'Homme des vallées perdues (Shane), film de George Stevens, adaptation par A. B. Guthrie, Jr., d'un roman de Jack Schaefer, avec Alan Ladd et Jean Arthur
+1955 : L'Homme du Kentucky (The Kentuckian), film de Burt Lancaster, adaptation par A. B. Guthrie, Jr., d'un roman de Felix Holt (en), avec Burt Lancaster et Dianne Foster</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A._B._Guthrie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>œuvres adaptées</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1952 : La Captive aux yeux clairs (The Big Sky), film américain réalisé par Howard Hawks, adaptation du roman éponyme, avec Kirk Douglas et Dewey Martin
 1959 : Duel dans la boue (These Thousand Hills), film américain réalisé par Richard Fleischer, adaptation du roman éponyme, avec Don Murray et Lee Remick
 1967 : La Route de l'Ouest (The Way West), film américain réalisé par Andrew V. McLaglen, adaptation du roman éponyme, avec Kirk Douglas et Robert Mitchum</t>
         </is>
